--- a/vignettes/SamplePlateReader_Plate1.xlsx
+++ b/vignettes/SamplePlateReader_Plate1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="56">
   <si>
     <t>Software.Version</t>
   </si>
@@ -224,33 +224,8754 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="true" applyFill="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyFill="true" applyNumberFormat="true" borderId="0" fillId="3" fontId="0" numFmtId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5"/>
+  <cellXfs count="2913">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="4"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="5"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Standard" xfId="0"/>
     <cellStyle name="XLConnect.Header" xfId="1"/>
     <cellStyle name="XLConnect.String" xfId="2"/>
     <cellStyle name="XLConnect.Numeric" xfId="3"/>
@@ -264,54 +8985,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" s="2742" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="2743" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="2744" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="2745" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="2746" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" s="2747" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="G1" s="2748" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="H1" s="2749" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="I1" s="2750" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="J1" s="2751" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="K1" s="2752" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="L1" s="2753" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="M1" s="2754" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="N1" s="2755" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="O1" s="2756" t="s">
         <v>14</v>
       </c>
     </row>
@@ -333,10 +9054,10 @@
       <c r="O2"/>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" s="2757" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2771" t="s">
         <v>29</v>
       </c>
       <c r="C3"/>
@@ -354,10 +9075,10 @@
       <c r="O3"/>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="2">
+      <c r="A4" s="2758" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2772" t="s">
         <v>30</v>
       </c>
       <c r="C4"/>
@@ -375,10 +9096,10 @@
       <c r="O4"/>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="2">
+      <c r="A5" s="2759" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2773" t="s">
         <v>31</v>
       </c>
       <c r="C5"/>
@@ -396,10 +9117,10 @@
       <c r="O5"/>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="2">
+      <c r="A6" s="2760" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="2774" t="s">
         <v>32</v>
       </c>
       <c r="C6"/>
@@ -417,10 +9138,10 @@
       <c r="O6"/>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="2">
+      <c r="A7" s="2761" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="2775" t="s">
         <v>33</v>
       </c>
       <c r="C7"/>
@@ -438,10 +9159,10 @@
       <c r="O7"/>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="2">
+      <c r="A8" s="2762" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" s="2776" t="s">
         <v>34</v>
       </c>
       <c r="C8"/>
@@ -459,10 +9180,10 @@
       <c r="O8"/>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" s="2763" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" s="2777" t="s">
         <v>35</v>
       </c>
       <c r="C9"/>
@@ -480,10 +9201,10 @@
       <c r="O9"/>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" s="2764" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="2778" t="s">
         <v>36</v>
       </c>
       <c r="C10"/>
@@ -518,7 +9239,7 @@
       <c r="O11"/>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" s="2765" t="s">
         <v>23</v>
       </c>
       <c r="B12"/>
@@ -537,10 +9258,10 @@
       <c r="O12"/>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" s="2766" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" s="2779" t="s">
         <v>37</v>
       </c>
       <c r="C13"/>
@@ -558,7 +9279,7 @@
       <c r="O13"/>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="A14" s="2767" t="s">
         <v>25</v>
       </c>
       <c r="B14"/>
@@ -577,10 +9298,10 @@
       <c r="O14"/>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" s="2768" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" s="2780" t="s">
         <v>38</v>
       </c>
       <c r="C15"/>
@@ -599,7 +9320,7 @@
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="2">
+      <c r="B16" s="2781" t="s">
         <v>39</v>
       </c>
       <c r="C16"/>
@@ -618,7 +9339,7 @@
     </row>
     <row r="17">
       <c r="A17"/>
-      <c r="B17" t="s" s="2">
+      <c r="B17" s="2782" t="s">
         <v>40</v>
       </c>
       <c r="C17"/>
@@ -637,7 +9358,7 @@
     </row>
     <row r="18">
       <c r="A18"/>
-      <c r="B18" t="s" s="2">
+      <c r="B18" s="2783" t="s">
         <v>41</v>
       </c>
       <c r="C18"/>
@@ -656,7 +9377,7 @@
     </row>
     <row r="19">
       <c r="A19"/>
-      <c r="B19" t="s" s="2">
+      <c r="B19" s="2784" t="s">
         <v>42</v>
       </c>
       <c r="C19"/>
@@ -675,7 +9396,7 @@
     </row>
     <row r="20">
       <c r="A20"/>
-      <c r="B20" t="s" s="2">
+      <c r="B20" s="2785" t="s">
         <v>43</v>
       </c>
       <c r="C20"/>
@@ -694,7 +9415,7 @@
     </row>
     <row r="21">
       <c r="A21"/>
-      <c r="B21" t="s" s="2">
+      <c r="B21" s="2786" t="s">
         <v>44</v>
       </c>
       <c r="C21"/>
@@ -713,7 +9434,7 @@
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="2">
+      <c r="B22" s="2787" t="s">
         <v>45</v>
       </c>
       <c r="C22"/>
@@ -748,7 +9469,7 @@
       <c r="O23"/>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" s="2769" t="s">
         <v>27</v>
       </c>
       <c r="B24"/>
@@ -767,10 +9488,10 @@
       <c r="O24"/>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" s="2770" t="s">
         <v>28</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" s="2788" t="s">
         <v>46</v>
       </c>
       <c r="C25"/>
@@ -807,401 +9528,401 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27"/>
-      <c r="C27" t="n" s="3">
+      <c r="C27" s="2797" t="n">
         <v>1.0</v>
       </c>
-      <c r="D27" t="n" s="3">
+      <c r="D27" s="2806" t="n">
         <v>2.0</v>
       </c>
-      <c r="E27" t="n" s="3">
+      <c r="E27" s="2815" t="n">
         <v>3.0</v>
       </c>
-      <c r="F27" t="n" s="3">
+      <c r="F27" s="2824" t="n">
         <v>4.0</v>
       </c>
-      <c r="G27" t="n" s="3">
+      <c r="G27" s="2833" t="n">
         <v>5.0</v>
       </c>
-      <c r="H27" t="n" s="3">
+      <c r="H27" s="2842" t="n">
         <v>6.0</v>
       </c>
-      <c r="I27" t="n" s="3">
+      <c r="I27" s="2851" t="n">
         <v>7.0</v>
       </c>
-      <c r="J27" t="n" s="3">
+      <c r="J27" s="2860" t="n">
         <v>8.0</v>
       </c>
-      <c r="K27" t="n" s="3">
+      <c r="K27" s="2869" t="n">
         <v>9.0</v>
       </c>
-      <c r="L27" t="n" s="3">
+      <c r="L27" s="2878" t="n">
         <v>10.0</v>
       </c>
-      <c r="M27" t="n" s="3">
+      <c r="M27" s="2887" t="n">
         <v>11.0</v>
       </c>
-      <c r="N27" t="n" s="3">
+      <c r="N27" s="2896" t="n">
         <v>12.0</v>
       </c>
       <c r="O27"/>
     </row>
     <row r="28">
       <c r="A28"/>
-      <c r="B28" t="s" s="2">
+      <c r="B28" s="2789" t="s">
         <v>47</v>
       </c>
-      <c r="C28" t="n" s="3">
+      <c r="C28" s="2798" t="n">
         <v>359.0</v>
       </c>
-      <c r="D28" t="n" s="3">
+      <c r="D28" s="2807" t="n">
         <v>246.0</v>
       </c>
-      <c r="E28" t="n" s="3">
+      <c r="E28" s="2816" t="n">
         <v>245.0</v>
       </c>
-      <c r="F28" t="n" s="3">
+      <c r="F28" s="2825" t="n">
         <v>407.0</v>
       </c>
-      <c r="G28" t="n" s="3">
+      <c r="G28" s="2834" t="n">
         <v>867.0</v>
       </c>
-      <c r="H28" t="n" s="3">
+      <c r="H28" s="2843" t="n">
         <v>235.0</v>
       </c>
-      <c r="I28" t="n" s="3">
+      <c r="I28" s="2852" t="n">
         <v>397.0</v>
       </c>
-      <c r="J28" t="n" s="3">
+      <c r="J28" s="2861" t="n">
         <v>342.0</v>
       </c>
-      <c r="K28" t="n" s="3">
+      <c r="K28" s="2870" t="n">
         <v>573.0</v>
       </c>
-      <c r="L28" t="n" s="3">
+      <c r="L28" s="2879" t="n">
         <v>528.0</v>
       </c>
-      <c r="M28" t="n" s="3">
+      <c r="M28" s="2888" t="n">
         <v>370.0</v>
       </c>
-      <c r="N28" t="n" s="3">
+      <c r="N28" s="2897" t="n">
         <v>390.0</v>
       </c>
-      <c r="O28" t="s" s="2">
+      <c r="O28" s="2905" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29">
       <c r="A29"/>
-      <c r="B29" t="s" s="2">
+      <c r="B29" s="2790" t="s">
         <v>48</v>
       </c>
-      <c r="C29" t="n" s="3">
+      <c r="C29" s="2799" t="n">
         <v>218.0</v>
       </c>
-      <c r="D29" t="n" s="3">
+      <c r="D29" s="2808" t="n">
         <v>192.0</v>
       </c>
-      <c r="E29" t="n" s="3">
+      <c r="E29" s="2817" t="n">
         <v>174.0</v>
       </c>
-      <c r="F29" t="n" s="3">
+      <c r="F29" s="2826" t="n">
         <v>175.0</v>
       </c>
-      <c r="G29" t="n" s="3">
+      <c r="G29" s="2835" t="n">
         <v>313.0</v>
       </c>
-      <c r="H29" t="n" s="3">
+      <c r="H29" s="2844" t="n">
         <v>166.0</v>
       </c>
-      <c r="I29" t="n" s="3">
+      <c r="I29" s="2853" t="n">
         <v>488.0</v>
       </c>
-      <c r="J29" t="n" s="3">
+      <c r="J29" s="2862" t="n">
         <v>225.0</v>
       </c>
-      <c r="K29" t="n" s="3">
+      <c r="K29" s="2871" t="n">
         <v>197.0</v>
       </c>
-      <c r="L29" t="n" s="3">
+      <c r="L29" s="2880" t="n">
         <v>195.0</v>
       </c>
-      <c r="M29" t="n" s="3">
+      <c r="M29" s="2889" t="n">
         <v>398.0</v>
       </c>
-      <c r="N29" t="n" s="3">
+      <c r="N29" s="2898" t="n">
         <v>230.0</v>
       </c>
-      <c r="O29" t="s" s="2">
+      <c r="O29" s="2906" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30">
       <c r="A30"/>
-      <c r="B30" t="s" s="2">
+      <c r="B30" s="2791" t="s">
         <v>49</v>
       </c>
-      <c r="C30" t="n" s="3">
+      <c r="C30" s="2800" t="n">
         <v>165.0</v>
       </c>
-      <c r="D30" t="n" s="3">
+      <c r="D30" s="2809" t="n">
         <v>109.0</v>
       </c>
-      <c r="E30" t="n" s="3">
+      <c r="E30" s="2818" t="n">
         <v>260.0</v>
       </c>
-      <c r="F30" t="n" s="3">
+      <c r="F30" s="2827" t="n">
         <v>134.0</v>
       </c>
-      <c r="G30" t="n" s="3">
+      <c r="G30" s="2836" t="n">
         <v>166.0</v>
       </c>
-      <c r="H30" t="n" s="3">
+      <c r="H30" s="2845" t="n">
         <v>256.0</v>
       </c>
-      <c r="I30" t="n" s="3">
+      <c r="I30" s="2854" t="n">
         <v>483.0</v>
       </c>
-      <c r="J30" t="n" s="3">
+      <c r="J30" s="2863" t="n">
         <v>515.0</v>
       </c>
-      <c r="K30" t="n" s="3">
+      <c r="K30" s="2872" t="n">
         <v>321.0</v>
       </c>
-      <c r="L30" t="n" s="3">
+      <c r="L30" s="2881" t="n">
         <v>480.0</v>
       </c>
-      <c r="M30" t="n" s="3">
+      <c r="M30" s="2890" t="n">
         <v>692.0</v>
       </c>
-      <c r="N30" t="n" s="3">
+      <c r="N30" s="2899" t="n">
         <v>492.0</v>
       </c>
-      <c r="O30" t="s" s="2">
+      <c r="O30" s="2907" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31">
       <c r="A31"/>
-      <c r="B31" t="s" s="2">
+      <c r="B31" s="2792" t="s">
         <v>50</v>
       </c>
-      <c r="C31" t="n" s="3">
+      <c r="C31" s="2801" t="n">
         <v>87.0</v>
       </c>
-      <c r="D31" t="n" s="3">
+      <c r="D31" s="2810" t="n">
         <v>73.0</v>
       </c>
-      <c r="E31" t="n" s="3">
+      <c r="E31" s="2819" t="n">
         <v>59.0</v>
       </c>
-      <c r="F31" t="n" s="3">
+      <c r="F31" s="2828" t="n">
         <v>96.0</v>
       </c>
-      <c r="G31" t="n" s="3">
+      <c r="G31" s="2837" t="n">
         <v>140.0</v>
       </c>
-      <c r="H31" t="n" s="3">
+      <c r="H31" s="2846" t="n">
         <v>122.0</v>
       </c>
-      <c r="I31" t="n" s="3">
+      <c r="I31" s="2855" t="n">
         <v>415.0</v>
       </c>
-      <c r="J31" t="n" s="3">
+      <c r="J31" s="2864" t="n">
         <v>499.0</v>
       </c>
-      <c r="K31" t="n" s="3">
+      <c r="K31" s="2873" t="n">
         <v>520.0</v>
       </c>
-      <c r="L31" t="n" s="3">
+      <c r="L31" s="2882" t="n">
         <v>318.0</v>
       </c>
-      <c r="M31" t="n" s="3">
+      <c r="M31" s="2891" t="n">
         <v>595.0</v>
       </c>
-      <c r="N31" t="n" s="3">
+      <c r="N31" s="2900" t="n">
         <v>240.0</v>
       </c>
-      <c r="O31" t="s" s="2">
+      <c r="O31" s="2908" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32">
       <c r="A32"/>
-      <c r="B32" t="s" s="2">
+      <c r="B32" s="2793" t="s">
         <v>51</v>
       </c>
-      <c r="C32" t="n" s="3">
+      <c r="C32" s="2802" t="n">
         <v>580.0</v>
       </c>
-      <c r="D32" t="n" s="3">
+      <c r="D32" s="2811" t="n">
         <v>96.0</v>
       </c>
-      <c r="E32" t="n" s="3">
+      <c r="E32" s="2820" t="n">
         <v>122.0</v>
       </c>
-      <c r="F32" t="n" s="3">
+      <c r="F32" s="2829" t="n">
         <v>134.0</v>
       </c>
-      <c r="G32" t="n" s="3">
+      <c r="G32" s="2838" t="n">
         <v>91.0</v>
       </c>
-      <c r="H32" t="n" s="3">
+      <c r="H32" s="2847" t="n">
         <v>212.0</v>
       </c>
-      <c r="I32" t="n" s="3">
+      <c r="I32" s="2856" t="n">
         <v>90.0</v>
       </c>
-      <c r="J32" t="n" s="3">
+      <c r="J32" s="2865" t="n">
         <v>89.0</v>
       </c>
-      <c r="K32" t="n" s="3">
+      <c r="K32" s="2874" t="n">
         <v>116.0</v>
       </c>
-      <c r="L32" t="n" s="3">
+      <c r="L32" s="2883" t="n">
         <v>59.0</v>
       </c>
-      <c r="M32" t="n" s="3">
+      <c r="M32" s="2892" t="n">
         <v>62.0</v>
       </c>
-      <c r="N32" t="n" s="3">
+      <c r="N32" s="2901" t="n">
         <v>59.0</v>
       </c>
-      <c r="O32" t="s" s="2">
+      <c r="O32" s="2909" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="33">
       <c r="A33"/>
-      <c r="B33" t="s" s="2">
+      <c r="B33" s="2794" t="s">
         <v>52</v>
       </c>
-      <c r="C33" t="n" s="3">
+      <c r="C33" s="2803" t="n">
         <v>379.0</v>
       </c>
-      <c r="D33" t="n" s="3">
+      <c r="D33" s="2812" t="n">
         <v>1226.0</v>
       </c>
-      <c r="E33" t="n" s="3">
+      <c r="E33" s="2821" t="n">
         <v>565.0</v>
       </c>
-      <c r="F33" t="n" s="3">
+      <c r="F33" s="2830" t="n">
         <v>548.0</v>
       </c>
-      <c r="G33" t="n" s="3">
+      <c r="G33" s="2839" t="n">
         <v>377.0</v>
       </c>
-      <c r="H33" t="n" s="3">
+      <c r="H33" s="2848" t="n">
         <v>466.0</v>
       </c>
-      <c r="I33" t="n" s="3">
+      <c r="I33" s="2857" t="n">
         <v>48.0</v>
       </c>
-      <c r="J33" t="n" s="3">
+      <c r="J33" s="2866" t="n">
         <v>51.0</v>
       </c>
-      <c r="K33" t="n" s="3">
+      <c r="K33" s="2875" t="n">
         <v>61.0</v>
       </c>
-      <c r="L33" t="n" s="3">
+      <c r="L33" s="2884" t="n">
         <v>139.0</v>
       </c>
-      <c r="M33" t="n" s="3">
+      <c r="M33" s="2893" t="n">
         <v>137.0</v>
       </c>
-      <c r="N33" t="n" s="3">
+      <c r="N33" s="2902" t="n">
         <v>135.0</v>
       </c>
-      <c r="O33" t="s" s="2">
+      <c r="O33" s="2910" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="34">
       <c r="A34"/>
-      <c r="B34" t="s" s="2">
+      <c r="B34" s="2795" t="s">
         <v>53</v>
       </c>
-      <c r="C34" t="n" s="3">
+      <c r="C34" s="2804" t="n">
         <v>456.0</v>
       </c>
-      <c r="D34" t="n" s="3">
+      <c r="D34" s="2813" t="n">
         <v>865.0</v>
       </c>
-      <c r="E34" t="n" s="3">
+      <c r="E34" s="2822" t="n">
         <v>276.0</v>
       </c>
-      <c r="F34" t="n" s="3">
+      <c r="F34" s="2831" t="n">
         <v>311.0</v>
       </c>
-      <c r="G34" t="n" s="3">
+      <c r="G34" s="2840" t="n">
         <v>764.0</v>
       </c>
-      <c r="H34" t="n" s="3">
+      <c r="H34" s="2849" t="n">
         <v>274.0</v>
       </c>
-      <c r="I34" t="n" s="3">
+      <c r="I34" s="2858" t="n">
         <v>132.0</v>
       </c>
-      <c r="J34" t="n" s="3">
+      <c r="J34" s="2867" t="n">
         <v>172.0</v>
       </c>
-      <c r="K34" t="n" s="3">
+      <c r="K34" s="2876" t="n">
         <v>734.0</v>
       </c>
-      <c r="L34" t="n" s="3">
+      <c r="L34" s="2885" t="n">
         <v>262.0</v>
       </c>
-      <c r="M34" t="n" s="3">
+      <c r="M34" s="2894" t="n">
         <v>132.0</v>
       </c>
-      <c r="N34" t="n" s="3">
+      <c r="N34" s="2903" t="n">
         <v>335.0</v>
       </c>
-      <c r="O34" t="s" s="2">
+      <c r="O34" s="2911" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35">
       <c r="A35"/>
-      <c r="B35" t="s" s="2">
+      <c r="B35" s="2796" t="s">
         <v>54</v>
       </c>
-      <c r="C35" t="n" s="3">
+      <c r="C35" s="2805" t="n">
         <v>134.0</v>
       </c>
-      <c r="D35" t="n" s="3">
+      <c r="D35" s="2814" t="n">
         <v>125.0</v>
       </c>
-      <c r="E35" t="n" s="3">
+      <c r="E35" s="2823" t="n">
         <v>174.0</v>
       </c>
-      <c r="F35" t="n" s="3">
+      <c r="F35" s="2832" t="n">
         <v>92.0</v>
       </c>
-      <c r="G35" t="n" s="3">
+      <c r="G35" s="2841" t="n">
         <v>84.0</v>
       </c>
-      <c r="H35" t="n" s="3">
+      <c r="H35" s="2850" t="n">
         <v>89.0</v>
       </c>
-      <c r="I35" t="n" s="3">
+      <c r="I35" s="2859" t="n">
         <v>1292.0</v>
       </c>
-      <c r="J35" t="n" s="3">
+      <c r="J35" s="2868" t="n">
         <v>588.0</v>
       </c>
-      <c r="K35" t="n" s="3">
+      <c r="K35" s="2877" t="n">
         <v>391.0</v>
       </c>
-      <c r="L35" t="n" s="3">
+      <c r="L35" s="2886" t="n">
         <v>310.0</v>
       </c>
-      <c r="M35" t="n" s="3">
+      <c r="M35" s="2895" t="n">
         <v>1376.0</v>
       </c>
-      <c r="N35" t="n" s="3">
+      <c r="N35" s="2904" t="n">
         <v>312.0</v>
       </c>
-      <c r="O35" t="s" s="2">
+      <c r="O35" s="2912" t="s">
         <v>55</v>
       </c>
     </row>
